--- a/output/google_maps_data_SD_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_SD_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 450300</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>-7.809527</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.809527</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.377867</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Official+Bimbel+Neutron/@-7.8095272,110.3598425,15z/data=!4m9!1m2!2m1!1sSD+Kota+Yogyakarta!3m5!1s0x2e7a579d8d42afdb:0xd6b7ec5c1678685f!8m2!3d-7.8095272!4d110.3778669!16s%2Fg%2F11b6s8f5x4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Official+Bimbel+Neutron/@-7.8095272,110.3598425,15z/data=!4m9!1m2!2m1!1sSD+Kota+Yogyakarta!3m5!1s0x2e7a579d8d42afdb:0xd6b7ec5c1678685f!8m2!3d-7.8095272!4d110.3778669!16s%2Fg%2F11b6s8f5x4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 372317</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.817085</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.817085</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.373612</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karanganyar+Kota+Yogyakarta/@-7.8095272,110.3598425,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57a1ec3963ad:0xdd7d9f16bd747bdf!8m2!3d-7.8170854!4d110.3736116!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3ylkw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karanganyar+Kota+Yogyakarta/@-7.8095272,110.3598425,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57a1ec3963ad:0xdd7d9f16bd747bdf!8m2!3d-7.8170854!4d110.3736116!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3ylkw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -601,25 +594,24 @@
           <t>(0274) 379345</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.814359</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.814359</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.369769</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pujokusuman+1%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A5%EA%A6%B8%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%B8%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A6%A4%EA%A7%80/@-7.8095272,110.3598425,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5798f8e68991:0x569cea8af2f811f0!8m2!3d-7.8143595!4d110.3697686!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b63cln8t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pujokusuman+1%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A5%EA%A6%B8%EA%A6%97%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%B8%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A6%A4%EA%A7%80/@-7.8095272,110.3598425,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5798f8e68991:0x569cea8af2f811f0!8m2!3d-7.8143595!4d110.3697686!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b63cln8t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -646,25 +638,24 @@
           <t>(0274) 370383</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.805253</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.805253</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.365227</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Keputran+I+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BC%EA%A6%A5%EA%A6%B8%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87)/@-7.8052535,110.3472023,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578fc243fd3f:0x85153d9bbe9e0e8f!8m2!3d-7.8052535!4d110.3652267!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzpz4c1x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Keputran+I+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BC%EA%A6%A5%EA%A6%B8%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87)/@-7.8052535,110.3472023,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578fc243fd3f:0x85153d9bbe9e0e8f!8m2!3d-7.8052535!4d110.3652267!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzpz4c1x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -687,25 +678,24 @@
           <t>(0274) 565849</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>-7.797184</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.797184</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.37862</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Juara+Yogyakarta/@-7.7971836,110.3605958,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a577f8a20c615:0x60fd2ccafea2ce4e!8m2!3d-7.7971836!4d110.3786202!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1ptx3wm18?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Juara+Yogyakarta/@-7.7971836,110.3605958,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a577f8a20c615:0x60fd2ccafea2ce4e!8m2!3d-7.7971836!4d110.3786202!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1ptx3wm18?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -732,25 +722,24 @@
           <t>(0274) 544752</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.792836</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.792836</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.371884</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Lempuyangan+1(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A7%80%EA%A6%8A%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%B8%EA%A6%AA%EA%A6%94%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87)/@-7.7971836,110.3605958,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a58297a035979:0xc6655b8d1f59fbd1!8m2!3d-7.792836!4d110.371884!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11g6rl2mxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Lempuyangan+1(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A7%80%EA%A6%8A%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%B8%EA%A6%AA%EA%A6%94%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87)/@-7.7971836,110.3605958,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a58297a035979:0xc6655b8d1f59fbd1!8m2!3d-7.792836!4d110.371884!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11g6rl2mxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -777,25 +766,24 @@
           <t>(0274) 589465</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>-7.795812</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.795812</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.372306</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Lempuyangwangi+%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8A%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%B8%EA%A6%AA%EA%A6%81%EA%A6%AE%EA%A6%94%EA%A6%B6/@-7.7971836,110.3605958,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5787556a862f:0xb3dab7e7f146d2ba!8m2!3d-7.7958124!4d110.3723063!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm469hkl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Lempuyangwangi+%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8A%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%B8%EA%A6%AA%EA%A6%81%EA%A6%AE%EA%A6%94%EA%A6%B6/@-7.7971836,110.3605958,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5787556a862f:0xb3dab7e7f146d2ba!8m2!3d-7.7958124!4d110.3723063!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm469hkl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -818,25 +806,24 @@
           <t>(0274) 585450</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.798947</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.798947</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.363172</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngupasan(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%B8%EA%A6%A5%EA%A6%B1%EA%A6%A4%EA%A7%80)/@-7.7989468,110.3451475,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578906e33ce7:0x6bb52f8e242409c0!8m2!3d-7.7989468!4d110.3631719!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm483h23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngupasan(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%B8%EA%A6%A5%EA%A6%B1%EA%A6%A4%EA%A7%80)/@-7.7989468,110.3451475,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578906e33ce7:0x6bb52f8e242409c0!8m2!3d-7.7989468!4d110.3631719!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm483h23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -863,25 +850,24 @@
           <t>(0274) 381840</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>-7.808922</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.808922</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.358483</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Dasar+Keputran+2+Yogyakarta+(%EA%A6%B1%EA%A6%BC%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%83%EA%A6%A3%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A5%EA%A6%B8%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.7989468,110.3451475,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57925059cd05:0x7aca7d5a1279cea5!8m2!3d-7.8089218!4d110.3584825!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm30fz25?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Dasar+Keputran+2+Yogyakarta+(%EA%A6%B1%EA%A6%BC%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%83%EA%A6%A3%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A5%EA%A6%B8%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0)/@-7.7989468,110.3451475,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57925059cd05:0x7aca7d5a1279cea5!8m2!3d-7.8089218!4d110.3584825!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm30fz25?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -904,25 +890,24 @@
           <t>(0274) 385975</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>-7.802407</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.802407</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Pangudi+Luhur+I+%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%A3%EA%A6%BA%EA%A7%88%EA%A6%A5%EA%A6%94%EA%A6%B8%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%B8%EA%A6%B2%EA%A6%B8%EA%A6%82%EA%A7%87%EA%A7%91%EA%A7%87/@-7.7989468,110.3451475,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578f5fb2edb1:0xb4127fd67e8bd4d0!8m2!3d-7.8024068!4d110.3647568!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hc7_0kgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Pangudi+Luhur+I+%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%A3%EA%A6%BA%EA%A7%88%EA%A6%A5%EA%A6%94%EA%A6%B8%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%B8%EA%A6%B2%EA%A6%B8%EA%A6%82%EA%A7%87%EA%A7%91%EA%A7%87/@-7.7989468,110.3451475,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578f5fb2edb1:0xb4127fd67e8bd4d0!8m2!3d-7.8024068!4d110.3647568!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hc7_0kgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -949,25 +934,24 @@
           <t>(0274) 388546</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>-7.805413</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.805413</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.378179</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Taman+Muda+Ibu+Pawiyatan+Tamansiswa/@-7.8054134,110.3601546,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5782aee0bdb9:0xa8a663a2bc0ee195!8m2!3d-7.8054134!4d110.378179!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dxkxhd61?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Taman+Muda+Ibu+Pawiyatan+Tamansiswa/@-7.8054134,110.3601546,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5782aee0bdb9:0xa8a663a2bc0ee195!8m2!3d-7.8054134!4d110.378179!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dxkxhd61?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -994,25 +978,24 @@
           <t>(0274) 544703</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>-7.799319</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.799319</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.359218</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ngadiwinatan,+%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%94%EA%A6%A3%EA%A6%B6%EA%A6%AE%EA%A6%B6%EA%A6%A4%EA%A6%A0%EA%A6%A4%EA%A7%80/@-7.7993192,110.3411933,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578bafd4a179:0xe9018e5447f96fe6!8m2!3d-7.7993192!4d110.3592177!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dxcghwg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ngadiwinatan,+%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%94%EA%A6%A3%EA%A6%B6%EA%A6%AE%EA%A6%B6%EA%A6%A4%EA%A6%A0%EA%A6%A4%EA%A7%80/@-7.7993192,110.3411933,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578bafd4a179:0xe9018e5447f96fe6!8m2!3d-7.7993192!4d110.3592177!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dxcghwg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1035,25 +1018,24 @@
           <t>(0274) 450489</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.802532</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.802532</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.378324</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Margoyasan+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A9%EA%A6%82%EA%A6%92%EA%A6%BA%EA%A6%B4%EA%A6%AA%EA%A6%B1%EA%A6%A4%EA%A7%80)+RZT+BOSSS/@-7.8025316,110.3602991,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57827a39f367:0x6814cc4d58ff5f5!8m2!3d-7.8025316!4d110.3783235!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bbyf12v4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Margoyasan+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A9%EA%A6%82%EA%A6%92%EA%A6%BA%EA%A6%B4%EA%A6%AA%EA%A6%B1%EA%A6%A4%EA%A7%80)+RZT+BOSSS/@-7.8025316,110.3602991,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57827a39f367:0x6814cc4d58ff5f5!8m2!3d-7.8025316!4d110.3783235!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bbyf12v4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1080,25 +1062,24 @@
           <t>(0274) 515501</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.78603</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.78603</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.375149</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Serayu+Yogyakarta%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%BC%EA%A6%AB%EA%A6%AA%EA%A6%B8%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.78603,110.3571246,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a582d9d522a81:0x71fb3a7b1d9dbef1!8m2!3d-7.78603!4d110.375149!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm21shv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Serayu+Yogyakarta%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%BC%EA%A6%AB%EA%A6%AA%EA%A6%B8%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.78603,110.3571246,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a582d9d522a81:0x71fb3a7b1d9dbef1!8m2!3d-7.78603!4d110.375149!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm21shv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1121,25 +1102,24 @@
           <t>(0274) 379397</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>-7.813518</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.813518</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.362373</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Keputran+'A'+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BC%EA%A6%A5%EA%A6%B8%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80'%EA%A6%84')/@-7.813518,110.3443486,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5796ed6a2675:0x950043e1672a4ca4!8m2!3d-7.813518!4d110.362373!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1q2wbwy34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Keputran+'A'+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BC%EA%A6%A5%EA%A6%B8%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80'%EA%A6%84')/@-7.813518,110.3443486,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5796ed6a2675:0x950043e1672a4ca4!8m2!3d-7.813518!4d110.362373!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1q2wbwy34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1162,25 +1142,24 @@
           <t>(0274) 41203</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.808964</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.808964</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.368074</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sd+panembahan/@-7.813518,110.3443486,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a579a60f95ea9:0x290f0aa834c7aecd!8m2!3d-7.8089641!4d110.3680743!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3sqycm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sd+panembahan/@-7.813518,110.3443486,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a579a60f95ea9:0x290f0aa834c7aecd!8m2!3d-7.8089641!4d110.3680743!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3sqycm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1207,25 +1186,24 @@
           <t>0895-3601-23666</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.798534</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.798534</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.375741</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Puro+Pakualaman+I/@-7.7985336,110.3577167,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5781a87a15eb:0xb030bb10300cb294!8m2!3d-7.7985336!4d110.3757411!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm37hgw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Puro+Pakualaman+I/@-7.7985336,110.3577167,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5781a87a15eb:0xb030bb10300cb294!8m2!3d-7.7985336!4d110.3757411!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm37hgw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1248,25 +1226,24 @@
           <t>(0274) 410068</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.803506</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.803506</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.371121</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sayidan/@-7.7985336,110.3577167,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57848a961d3d:0x2e0b0dfd5c6b64cb!8m2!3d-7.8035056!4d110.3711207!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm31v63r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sayidan/@-7.7985336,110.3577167,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57848a961d3d:0x2e0b0dfd5c6b64cb!8m2!3d-7.8035056!4d110.3711207!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm31v63r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1289,25 +1266,24 @@
           <t>(0274) 373085</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.818956</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.818956</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.370678</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Prawirotaman/@-7.8189557,110.3526535,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57a24ce528d7:0x6dd79d1929d26545!8m2!3d-7.8189557!4d110.3706779!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bbx25ssc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Prawirotaman/@-7.8189557,110.3526535,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57a24ce528d7:0x6dd79d1929d26545!8m2!3d-7.8189557!4d110.3706779!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bbx25ssc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1334,25 +1310,24 @@
           <t>(0274) 580609</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>-7.79182</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.79182</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.363183</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Netral+D/@-7.7918198,110.3451585,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a58268ef195c3:0xdfda59410df4159f!8m2!3d-7.7918198!4d110.3631829!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2py0tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Netral+D/@-7.7918198,110.3451585,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a58268ef195c3:0xdfda59410df4159f!8m2!3d-7.7918198!4d110.3631829!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2py0tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1379,25 +1354,24 @@
           <t>(0274) 542928</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>-7.796789</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.796789</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.391013</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+IT+Luqman+Al+Hakim+Yogyakarta/@-7.796789,110.372989,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5762cd06f229:0x649fe1c3ca0b52db!8m2!3d-7.796789!4d110.3910134!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm59jtsk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+IT+Luqman+Al+Hakim+Yogyakarta/@-7.796789,110.372989,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5762cd06f229:0x649fe1c3ca0b52db!8m2!3d-7.796789!4d110.3910134!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm59jtsk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1420,25 +1394,24 @@
           <t>(0274) 383969</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.3</v>
+        <v>-7.818771</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.818771</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.360227</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Suryodiningratan+3+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%B8%EA%A6%82%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A3%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%94%EA%A6%BF%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%93%EA%A7%87/@-7.8187711,110.3422026,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57be7ba54845:0x66b523e393fa0acb!8m2!3d-7.8187711!4d110.360227!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bbx0qd42?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Suryodiningratan+3+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%B8%EA%A6%82%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A3%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%94%EA%A6%BF%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%93%EA%A7%87/@-7.8187711,110.3422026,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57be7ba54845:0x66b523e393fa0acb!8m2!3d-7.8187711!4d110.360227!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bbx0qd42?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1461,25 +1434,24 @@
           <t>(0274) 415827</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.804929</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.804929</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.386137</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tahunan+Yogyakarta/@-7.8049292,110.3681128,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a577a74b8c609:0xf2db9377af7a846a!8m2!3d-7.8049292!4d110.3861372!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4sxlk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tahunan+Yogyakarta/@-7.8049292,110.3681128,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a577a74b8c609:0xf2db9377af7a846a!8m2!3d-7.8049292!4d110.3861372!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4sxlk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1506,25 +1478,24 @@
           <t>(0274) 389835</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>-7.820894</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.820894</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.386316</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kotagede+III+(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%92%EA%A6%BA%EA%A6%A3%EA%A6%BA%EA%A7%87%EA%A7%93%EA%A7%87)/@-7.8208944,110.3682913,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a570e9c1b841f:0x6f2d3ea06a70462a!8m2!3d-7.8208944!4d110.3863157!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm266dtd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kotagede+III+(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%92%EA%A6%BA%EA%A6%A3%EA%A6%BA%EA%A7%87%EA%A7%93%EA%A7%87)/@-7.8208944,110.3682913,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a570e9c1b841f:0x6f2d3ea06a70462a!8m2!3d-7.8208944!4d110.3863157!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm266dtd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1547,25 +1518,24 @@
           <t>(0274) 413360</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>-7.805379</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.805379</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.351285</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Tamansari+I/@-7.8053785,110.3332602,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57f256af116d:0xbebd8dfb186e80a4!8m2!3d-7.8053785!4d110.3512846!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pv0tbmnm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1588,25 +1558,24 @@
           <t>(0274) 7104773</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.9</v>
+        <v>-7.783949</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.783949</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.360624</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Vidya+Qasana/@-7.783949,110.3425996,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a583c9cf22109:0x7265d64308d4a5a9!8m2!3d-7.783949!4d110.360624!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b64k1pyp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Vidya+Qasana/@-7.783949,110.3425996,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a583c9cf22109:0x7265d64308d4a5a9!8m2!3d-7.783949!4d110.360624!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b64k1pyp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1625,25 +1594,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.8</v>
+        <v>-7.7998</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.7998</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.357651</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Purwodiningratan/@-7.7997995,110.3396268,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578ba7f7602d:0x279ef21c60568d54!8m2!3d-7.7997995!4d110.3576512!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11c1mz8l7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Purwodiningratan/@-7.7997995,110.3396268,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578ba7f7602d:0x279ef21c60568d54!8m2!3d-7.7997995!4d110.3576512!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11c1mz8l7l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1666,25 +1634,24 @@
           <t>(0274) 512363</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.800547</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.800547</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.361827</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ngupasan+1+%26+2/@-7.7997995,110.3396268,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578946590fad:0xda18074d95993a73!8m2!3d-7.8005473!4d110.3618265!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm50k0st?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ngupasan+1+%26+2/@-7.7997995,110.3396268,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578946590fad:0xda18074d95993a73!8m2!3d-7.8005473!4d110.3618265!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm50k0st?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1707,25 +1674,24 @@
           <t>(0274) 550572</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.9</v>
+        <v>-7.797666</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.797666</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.377594</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tukangan(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A0%EA%A6%B8%EA%A6%8F%EA%A6%94%EA%A6%A4%EA%A7%80)/@-7.797666,110.3595695,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5780326ab349:0x44abd916ef72a406!8m2!3d-7.797666!4d110.3775939!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1vm00w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tukangan(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A0%EA%A6%B8%EA%A6%8F%EA%A6%94%EA%A6%A4%EA%A7%80)/@-7.797666,110.3595695,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5780326ab349:0x44abd916ef72a406!8m2!3d-7.797666!4d110.3775939!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1vm00w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1748,25 +1714,24 @@
           <t>(0274) 381504</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.7</v>
+        <v>-7.802083</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.802083</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.360144</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Suronatan/@-7.8020835,110.3421191,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578c49dd8e9b:0x6a8c1b5b8ebfb2e3!8m2!3d-7.8020835!4d110.3601435!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3wmd8l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Suronatan/@-7.8020835,110.3421191,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578c49dd8e9b:0x6a8c1b5b8ebfb2e3!8m2!3d-7.8020835!4d110.3601435!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3wmd8l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1789,25 +1754,24 @@
           <t>(0274) 376435</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.818723</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.818723</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.357086</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Suryodiningratan+1.+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%B8%EA%A6%82%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A3%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%94%EA%A6%BF%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87)/@-7.8187232,110.3390617,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57bfb09a8f65:0x10b193363c4f896!8m2!3d-7.8187232!4d110.3570861!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm36dplx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Suryodiningratan+1.+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%B8%EA%A6%82%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A3%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%94%EA%A6%BF%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87)/@-7.8187232,110.3390617,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a57bfb09a8f65:0x10b193363c4f896!8m2!3d-7.8187232!4d110.3570861!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm36dplx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1834,25 +1798,24 @@
           <t>(0274) 581738</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>-7.786708</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.786708</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.368829</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Masjid+Syuhada/@-7.7867083,110.3508047,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a582e329ecc5b:0xc2ad2856da11aa2b!8m2!3d-7.7867083!4d110.3688291!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pv0sfb4x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Masjid+Syuhada/@-7.7867083,110.3508047,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a582e329ecc5b:0xc2ad2856da11aa2b!8m2!3d-7.7867083!4d110.3688291!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pv0sfb4x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1879,25 +1842,24 @@
           <t>(0274) 387878</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.801935</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.801935</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.36861</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%82%EA%A6%B1%EA%A6%B8%EA%A6%A3%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0+SD+Marsudirini+Yogyakarta/@-7.7867083,110.3508047,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5785c697965d:0xaa802b2d2dd712c8!8m2!3d-7.801935!4d110.36861!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11r8flp9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%82%EA%A6%B1%EA%A6%B8%EA%A6%A3%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0+SD+Marsudirini+Yogyakarta/@-7.7867083,110.3508047,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a5785c697965d:0xaa802b2d2dd712c8!8m2!3d-7.801935!4d110.36861!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11r8flp9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1924,25 +1886,24 @@
           <t>(0274) 384386</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>-7.804354</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.804354</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.362078</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Kauman+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%8F%EA%A6%BB%EA%A6%B4%EA%A6%A9%EA%A6%A4%EA%A7%80)/@-7.8043538,110.3440536,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578e67102527:0x4be291faded46b27!8m2!3d-7.8043538!4d110.362078!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm55qrkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Kauman+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%8F%EA%A6%BB%EA%A6%B4%EA%A6%A9%EA%A6%A4%EA%A7%80)/@-7.8043538,110.3440536,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578e67102527:0x4be291faded46b27!8m2!3d-7.8043538!4d110.362078!15sChJTRCBLb3RhIFlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm55qrkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1965,25 +1926,24 @@
           <t>(0274) 417479</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.6</v>
+        <v>-7.805804</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.805804</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.359767</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kraton.+(%EA%A6%B1%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BF%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80)/@-7.8043538,110.3440536,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578de608f8f5:0x660a0d8a8154905e!8m2!3d-7.8058045!4d110.3597672!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1qz3vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kraton.+(%EA%A6%B1%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BF%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80)/@-7.8043538,110.3440536,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a578de608f8f5:0x660a0d8a8154905e!8m2!3d-7.8058045!4d110.3597672!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1qz3vg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2006,25 +1966,24 @@
           <t>(0274) 387381</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>-7.810422</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.810422</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.371929</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TK-SD+Kanisius+Kintelan+1/@-7.8104222,110.3539041,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a579b8cd7a61d:0xc5249620f5588571!8m2!3d-7.8104222!4d110.3719285!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzt601ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TK-SD+Kanisius+Kintelan+1/@-7.8104222,110.3539041,15z/data=!4m10!1m2!2m1!1sSD+Kota+Yogyakarta!3m6!1s0x2e7a579b8cd7a61d:0xc5249620f5588571!8m2!3d-7.8104222!4d110.3719285!15sChJTRCBLb3RhIFlvZ3lha2FydGGSAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzt601ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
